--- a/medicine/Mort/La_Complainte_sur_le_Christ_mort/La_Complainte_sur_le_Christ_mort.xlsx
+++ b/medicine/Mort/La_Complainte_sur_le_Christ_mort/La_Complainte_sur_le_Christ_mort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Complainte sur le Christ mort (en italien : Compianto sul Cristo morto) est une peinture religieuse du Pérugin, datant de 1495 environ, située dans la Galerie Palatine du Palais Pitti à Florence.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'œuvre a été réalisée pour les clarisses du couvent de Santa Chiara, supprimé en 1808.
 La peinture, considérée comme une des plus abouties de l'artiste, a servi comme modèle pour d'autres artistes comme Fra Bartolomeo  (Pietà), Andrea del Sarto (Pietà di Luco), toutes deux conservées à la Galerie Palatine.
@@ -545,7 +559,9 @@
           <t>Thème</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thème de l'œuvre est celui de l'iconographie de la peinture chrétienne, décrivant les pleurs et lamentations des proches du Christ après sa mort et sa Déposition, ou Descente de Croix.
 </t>
@@ -576,7 +592,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La scène se déroule au premier plan, dans la moitié inférieure du tableau.
 Au centre, le corps du Christ mort est mi-assis, étendu sur un suaire blanc ayant permis de le descendre de la Croix, soutenu par les protagonistes habituels de cette scène sacrée : une sainte femme, Nicomède et Joseph d'Arimathée portant une riche coiffe de damas à motifs  floraux.
@@ -615,7 +633,9 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'œuvre est emblématique de la production de l'artiste par la richesse des personnages et la variété des attitudes, tous orientés vers un même sentiment, riches de rapports psychologiques entre les diverses figures. La scène par son harmonie et sa beauté, fait ressortir un sentiment de calme, facilitant la contemplation religieuse.
 La représentation de la Vierge sous ses traits de femme mûre et austère est typique du climat spirituel préconisé par Jérôme Savonarole.
